--- a/TestData/Sample Data.xlsx
+++ b/TestData/Sample Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annacjacobson/Desktop/teacherprints/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annacjacobson/Desktop/teacherprints/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFAC58F-5DD8-1D40-BD91-AE398F2CC13A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0808F2F-E1D3-3040-BD53-12831B4F7153}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="460" windowWidth="28800" windowHeight="16500" activeTab="3" xr2:uid="{50F0849A-D355-473C-9659-D0CF6017E6A0}"/>
+    <workbookView xWindow="1760" yWindow="460" windowWidth="28800" windowHeight="16500" activeTab="4" xr2:uid="{50F0849A-D355-473C-9659-D0CF6017E6A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Ideas" sheetId="8" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Children" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">Calcs!$A$1:$D$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">Calcs!$A$1:$D$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="51">
   <si>
     <t>KCHI</t>
   </si>
@@ -163,22 +163,48 @@
     <t>Adult : Child</t>
   </si>
   <si>
-    <t>42% : 58%</t>
-  </si>
-  <si>
     <t>[Calculation is 1 - (Adult/Child)]</t>
   </si>
   <si>
     <t>[Calculation does not include unlabeled time]</t>
+  </si>
+  <si>
+    <t>STATEMENTS</t>
+  </si>
+  <si>
+    <t>Statements/Min</t>
+  </si>
+  <si>
+    <t>Teacher</t>
+  </si>
+  <si>
+    <t>Student(s)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>GAP</t>
+  </si>
+  <si>
+    <t>Overlaps</t>
+  </si>
+  <si>
+    <t>Encapsulations</t>
+  </si>
+  <si>
+    <t>Pauses</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="dd:hh"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -239,7 +265,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -261,7 +287,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -277,12 +302,50 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -325,6 +388,11 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FDB615"/>
+            </a:solidFill>
+          </c:spPr>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -339,7 +407,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-1BAE-564F-B6C0-AEF424016D2C}"/>
+                <c16:uniqueId val="{00000001-A1FE-3D4D-960C-176146BCB786}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -355,11 +423,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-1BAE-564F-B6C0-AEF424016D2C}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -376,7 +439,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
@@ -389,21 +452,22 @@
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
+            <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
               <c:spPr>
-                <a:ln w="9525">
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                   <a:solidFill>
-                    <a:schemeClr val="tx2">
+                    <a:schemeClr val="tx1">
                       <a:lumMod val="35000"/>
                       <a:lumOff val="65000"/>
                     </a:schemeClr>
                   </a:solidFill>
+                  <a:round/>
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
@@ -412,24 +476,48 @@
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Calcs!$F$17:$G$18</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="2"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1 min 26 sec</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1 min 59 sec</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Teacher</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Student(s)</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Calcs!$E$6:$E$7</c:f>
+              <c:f>Calcs!$H$17:$H$18</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.4296999999999997</c:v>
+                  <c:v>0.4187020441632987</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9849000000000003</c:v>
+                  <c:v>0.5812979558367013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1BAE-564F-B6C0-AEF424016D2C}"/>
+              <c16:uniqueId val="{00000000-A1FE-3D4D-960C-176146BCB786}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -438,16 +526,16 @@
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
+          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
-        <c:holeSize val="40"/>
+        <c:holeSize val="50"/>
       </c:doughnutChart>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="25400">
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -470,10 +558,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx2">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="bg1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -538,27 +623,33 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="255">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -573,7 +664,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -581,7 +672,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -589,14 +680,17 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -605,8 +699,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk2">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -629,35 +724,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="31750" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -666,32 +761,33 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt2"/>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -707,16 +803,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -750,17 +851,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -769,13 +870,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="75000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -787,20 +889,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -814,16 +922,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -832,17 +941,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -851,16 +960,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -869,24 +979,27 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -894,19 +1007,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -914,17 +1019,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -933,9 +1038,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -944,14 +1052,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -960,7 +1068,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -969,7 +1080,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -990,7 +1101,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -999,8 +1113,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1010,22 +1130,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
+      <xdr:colOff>307732</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>79130</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>559778</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>86945</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBC03847-72AB-8C4A-8589-7E1023AD8CFA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B634FAC-1C7F-F549-829E-033390A9C355}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6089,10 +6209,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050F4626-8726-44AD-BBC5-4A66DE8D5B32}">
-  <dimension ref="A1:F140"/>
+  <dimension ref="A1:I140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6103,7 +6223,7 @@
     <col min="4" max="4" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -6122,8 +6242,11 @@
       <c r="F1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -6144,8 +6267,14 @@
         <f>IF(A2="CHILD",1,-1)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -6166,8 +6295,20 @@
         <f t="shared" ref="F3:F66" si="1">IF(A3="CHILD",1,-1)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <f>F2+F3</f>
+        <v>2</v>
+      </c>
+      <c r="H3" s="20">
+        <f>B3-(B2+C2)</f>
+        <v>0.96699999999999986</v>
+      </c>
+      <c r="I3" s="20">
+        <f>H3+C3</f>
+        <v>2.6379999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -6188,8 +6329,20 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <f t="shared" ref="G4:G67" si="2">F3+F4</f>
+        <v>2</v>
+      </c>
+      <c r="H4" s="20">
+        <f>B4-(B3+C3)</f>
+        <v>-1.5110000000000001</v>
+      </c>
+      <c r="I4" s="20">
+        <f>H4+C4</f>
+        <v>-0.34600000000000009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -6210,8 +6363,20 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H5" s="20">
+        <f t="shared" ref="H4:H67" si="3">B5-(B4+C4)</f>
+        <v>-0.76500000000000012</v>
+      </c>
+      <c r="I5" s="20">
+        <f t="shared" ref="I5:I68" si="4">H5+C5</f>
+        <v>0.82599999999999985</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -6232,8 +6397,20 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="20">
+        <f t="shared" si="3"/>
+        <v>-0.48099999999999987</v>
+      </c>
+      <c r="I6" s="20">
+        <f t="shared" si="4"/>
+        <v>1.0670000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -6254,8 +6431,20 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="20">
+        <f t="shared" si="3"/>
+        <v>0.25199999999999978</v>
+      </c>
+      <c r="I7" s="20">
+        <f t="shared" si="4"/>
+        <v>2.0249999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -6276,8 +6465,20 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H8" s="20">
+        <f t="shared" si="3"/>
+        <v>2.7000000000001023E-2</v>
+      </c>
+      <c r="I8" s="20">
+        <f t="shared" si="4"/>
+        <v>1.668000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -6298,8 +6499,20 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H9" s="20">
+        <f t="shared" si="3"/>
+        <v>-0.34100000000000108</v>
+      </c>
+      <c r="I9" s="20">
+        <f t="shared" si="4"/>
+        <v>0.752999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -6320,8 +6533,20 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H10" s="20">
+        <f t="shared" si="3"/>
+        <v>1.2960000000000012</v>
+      </c>
+      <c r="I10" s="20">
+        <f t="shared" si="4"/>
+        <v>3.2810000000000015</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -6342,8 +6567,20 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H11" s="20">
+        <f t="shared" si="3"/>
+        <v>2.4149999999999991</v>
+      </c>
+      <c r="I11" s="20">
+        <f t="shared" si="4"/>
+        <v>3.5679999999999992</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -6364,8 +6601,20 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H12" s="20">
+        <f t="shared" si="3"/>
+        <v>1.5470000000000006</v>
+      </c>
+      <c r="I12" s="20">
+        <f t="shared" si="4"/>
+        <v>3.1340000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -6386,8 +6635,20 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H13" s="20">
+        <f t="shared" si="3"/>
+        <v>-8.6999999999999744E-2</v>
+      </c>
+      <c r="I13" s="20">
+        <f t="shared" si="4"/>
+        <v>1.5320000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -6408,8 +6669,20 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="20">
+        <f t="shared" si="3"/>
+        <v>-0.21899999999999764</v>
+      </c>
+      <c r="I14" s="20">
+        <f t="shared" si="4"/>
+        <v>0.97100000000000231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -6430,8 +6703,20 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="H15" s="20">
+        <f t="shared" si="3"/>
+        <v>0.50999999999999801</v>
+      </c>
+      <c r="I15" s="20">
+        <f t="shared" si="4"/>
+        <v>1.7049999999999981</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -6452,8 +6737,20 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="20">
+        <f t="shared" si="3"/>
+        <v>1.3049999999999997</v>
+      </c>
+      <c r="I16" s="20">
+        <f t="shared" si="4"/>
+        <v>2.3609999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -6474,8 +6771,20 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H17" s="20">
+        <f t="shared" si="3"/>
+        <v>1.7439999999999998</v>
+      </c>
+      <c r="I17" s="20">
+        <f t="shared" si="4"/>
+        <v>2.992</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -6496,8 +6805,20 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H18" s="20">
+        <f t="shared" si="3"/>
+        <v>-1.0480000000000018</v>
+      </c>
+      <c r="I18" s="20">
+        <f t="shared" si="4"/>
+        <v>0.24699999999999811</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -6518,8 +6839,20 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H19" s="20">
+        <f t="shared" si="3"/>
+        <v>-0.89500000000000313</v>
+      </c>
+      <c r="I19" s="20">
+        <f t="shared" si="4"/>
+        <v>0.70399999999999685</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
@@ -6540,8 +6873,20 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H20" s="20">
+        <f t="shared" si="3"/>
+        <v>-0.39899999999999736</v>
+      </c>
+      <c r="I20" s="20">
+        <f t="shared" si="4"/>
+        <v>0.98400000000000265</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
@@ -6562,8 +6907,20 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="20">
+        <f t="shared" si="3"/>
+        <v>-1.083000000000002</v>
+      </c>
+      <c r="I21" s="20">
+        <f t="shared" si="4"/>
+        <v>0.88199999999999812</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
@@ -6584,8 +6941,20 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="20">
+        <f t="shared" si="3"/>
+        <v>0.53499999999999659</v>
+      </c>
+      <c r="I22" s="20">
+        <f t="shared" si="4"/>
+        <v>2.3659999999999966</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
@@ -6606,8 +6975,20 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="20">
+        <f t="shared" si="3"/>
+        <v>6.8999999999995509E-2</v>
+      </c>
+      <c r="I23" s="20">
+        <f t="shared" si="4"/>
+        <v>1.2349999999999954</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
@@ -6628,8 +7009,20 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="20">
+        <f t="shared" si="3"/>
+        <v>-0.96599999999999397</v>
+      </c>
+      <c r="I24" s="20">
+        <f t="shared" si="4"/>
+        <v>4.1000000000005921E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
@@ -6650,8 +7043,20 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="20">
+        <f t="shared" si="3"/>
+        <v>1.3930000000000007</v>
+      </c>
+      <c r="I25" s="20">
+        <f t="shared" si="4"/>
+        <v>2.6980000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
@@ -6672,8 +7077,20 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="H26" s="20">
+        <f t="shared" si="3"/>
+        <v>2.5949999999999989</v>
+      </c>
+      <c r="I26" s="20">
+        <f t="shared" si="4"/>
+        <v>4.0789999999999988</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>11</v>
       </c>
@@ -6694,8 +7111,20 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="20">
+        <f t="shared" si="3"/>
+        <v>2.6159999999999997</v>
+      </c>
+      <c r="I27" s="20">
+        <f t="shared" si="4"/>
+        <v>3.851</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>12</v>
       </c>
@@ -6716,8 +7145,20 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="20">
+        <f t="shared" si="3"/>
+        <v>-0.93499999999999517</v>
+      </c>
+      <c r="I28" s="20">
+        <f t="shared" si="4"/>
+        <v>0.49300000000000477</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>11</v>
       </c>
@@ -6738,8 +7179,20 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="20">
+        <f t="shared" si="3"/>
+        <v>0.97200000000000131</v>
+      </c>
+      <c r="I29" s="20">
+        <f t="shared" si="4"/>
+        <v>2.5300000000000011</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>11</v>
       </c>
@@ -6760,8 +7213,20 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H30" s="20">
+        <f t="shared" si="3"/>
+        <v>-1.1580000000000013</v>
+      </c>
+      <c r="I30" s="20">
+        <f t="shared" si="4"/>
+        <v>-9.7000000000001307E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>12</v>
       </c>
@@ -6782,8 +7247,20 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="20">
+        <f t="shared" si="3"/>
+        <v>2.6390000000000029</v>
+      </c>
+      <c r="I31" s="20">
+        <f t="shared" si="4"/>
+        <v>4.4740000000000029</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>12</v>
       </c>
@@ -6804,8 +7281,20 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="H32" s="20">
+        <f t="shared" si="3"/>
+        <v>2.2649999999999935</v>
+      </c>
+      <c r="I32" s="20">
+        <f t="shared" si="4"/>
+        <v>4.1769999999999934</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>12</v>
       </c>
@@ -6826,8 +7315,20 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="H33" s="20">
+        <f t="shared" si="3"/>
+        <v>3.3880000000000052</v>
+      </c>
+      <c r="I33" s="20">
+        <f t="shared" si="4"/>
+        <v>4.8510000000000053</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>11</v>
       </c>
@@ -6848,8 +7349,20 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="20">
+        <f t="shared" si="3"/>
+        <v>0.23699999999999477</v>
+      </c>
+      <c r="I34" s="20">
+        <f t="shared" si="4"/>
+        <v>1.8309999999999949</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>12</v>
       </c>
@@ -6870,8 +7383,20 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="20">
+        <f t="shared" si="3"/>
+        <v>-1.3939999999999912</v>
+      </c>
+      <c r="I35" s="20">
+        <f t="shared" si="4"/>
+        <v>0.26400000000000867</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>12</v>
       </c>
@@ -6892,8 +7417,20 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="H36" s="20">
+        <f t="shared" si="3"/>
+        <v>0.74200000000000443</v>
+      </c>
+      <c r="I36" s="20">
+        <f t="shared" si="4"/>
+        <v>2.6500000000000044</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>12</v>
       </c>
@@ -6914,8 +7451,20 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="H37" s="20">
+        <f t="shared" si="3"/>
+        <v>-0.20800000000001262</v>
+      </c>
+      <c r="I37" s="20">
+        <f t="shared" si="4"/>
+        <v>1.6689999999999874</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
@@ -6936,8 +7485,20 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="20">
+        <f t="shared" si="3"/>
+        <v>-1.3769999999999953</v>
+      </c>
+      <c r="I38" s="20">
+        <f t="shared" si="4"/>
+        <v>0.4340000000000046</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>12</v>
       </c>
@@ -6958,8 +7519,20 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="20">
+        <f t="shared" si="3"/>
+        <v>-1.099999999999568E-2</v>
+      </c>
+      <c r="I39" s="20">
+        <f t="shared" si="4"/>
+        <v>1.1720000000000044</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>11</v>
       </c>
@@ -6980,8 +7553,20 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="20">
+        <f t="shared" si="3"/>
+        <v>0.81699999999999307</v>
+      </c>
+      <c r="I40" s="20">
+        <f t="shared" si="4"/>
+        <v>2.0899999999999928</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>12</v>
       </c>
@@ -7002,8 +7587,20 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="20">
+        <f t="shared" si="3"/>
+        <v>-0.87300000000000466</v>
+      </c>
+      <c r="I41" s="20">
+        <f t="shared" si="4"/>
+        <v>0.71099999999999541</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>12</v>
       </c>
@@ -7024,8 +7621,20 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="H42" s="20">
+        <f t="shared" si="3"/>
+        <v>1.5160000000000053</v>
+      </c>
+      <c r="I42" s="20">
+        <f t="shared" si="4"/>
+        <v>2.8510000000000053</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>12</v>
       </c>
@@ -7046,8 +7655,20 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="H43" s="20">
+        <f t="shared" si="3"/>
+        <v>0.56499999999999773</v>
+      </c>
+      <c r="I43" s="20">
+        <f t="shared" si="4"/>
+        <v>2.0859999999999976</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>12</v>
       </c>
@@ -7068,8 +7689,20 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="H44" s="20">
+        <f t="shared" si="3"/>
+        <v>-0.72100000000000364</v>
+      </c>
+      <c r="I44" s="20">
+        <f t="shared" si="4"/>
+        <v>0.66199999999999637</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>11</v>
       </c>
@@ -7090,8 +7723,20 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="20">
+        <f t="shared" si="3"/>
+        <v>-0.98299999999998988</v>
+      </c>
+      <c r="I45" s="20">
+        <f t="shared" si="4"/>
+        <v>0.28400000000001002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>12</v>
       </c>
@@ -7112,8 +7757,20 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="20">
+        <f t="shared" si="3"/>
+        <v>0.23300000000000409</v>
+      </c>
+      <c r="I46" s="20">
+        <f t="shared" si="4"/>
+        <v>1.8920000000000041</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>12</v>
       </c>
@@ -7134,8 +7791,20 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="H47" s="20">
+        <f t="shared" si="3"/>
+        <v>1.2409999999999997</v>
+      </c>
+      <c r="I47" s="20">
+        <f t="shared" si="4"/>
+        <v>2.4799999999999995</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>11</v>
       </c>
@@ -7156,8 +7825,20 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="20">
+        <f t="shared" si="3"/>
+        <v>2.4609999999999843</v>
+      </c>
+      <c r="I48" s="20">
+        <f t="shared" si="4"/>
+        <v>3.6109999999999842</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>12</v>
       </c>
@@ -7178,8 +7859,20 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="20">
+        <f t="shared" si="3"/>
+        <v>2.1500000000000057</v>
+      </c>
+      <c r="I49" s="20">
+        <f t="shared" si="4"/>
+        <v>3.3670000000000058</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>11</v>
       </c>
@@ -7200,8 +7893,20 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="20">
+        <f t="shared" si="3"/>
+        <v>1.3829999999999956</v>
+      </c>
+      <c r="I50" s="20">
+        <f t="shared" si="4"/>
+        <v>2.4919999999999956</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>12</v>
       </c>
@@ -7222,8 +7927,20 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H51" s="20">
+        <f t="shared" si="3"/>
+        <v>1.0910000000000082</v>
+      </c>
+      <c r="I51" s="20">
+        <f t="shared" si="4"/>
+        <v>2.7000000000000082</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>11</v>
       </c>
@@ -7244,8 +7961,20 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="20">
+        <f t="shared" si="3"/>
+        <v>-0.40899999999999181</v>
+      </c>
+      <c r="I52" s="20">
+        <f t="shared" si="4"/>
+        <v>1.0710000000000082</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>12</v>
       </c>
@@ -7266,8 +7995,20 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H53" s="20">
+        <f t="shared" si="3"/>
+        <v>0.11999999999999034</v>
+      </c>
+      <c r="I53" s="20">
+        <f t="shared" si="4"/>
+        <v>1.1559999999999904</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>11</v>
       </c>
@@ -7288,8 +8029,20 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H54" s="20">
+        <f t="shared" si="3"/>
+        <v>0.36400000000000432</v>
+      </c>
+      <c r="I54" s="20">
+        <f t="shared" si="4"/>
+        <v>1.7980000000000043</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>12</v>
       </c>
@@ -7310,8 +8063,20 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H55" s="20">
+        <f t="shared" si="3"/>
+        <v>-0.33400000000000318</v>
+      </c>
+      <c r="I55" s="20">
+        <f t="shared" si="4"/>
+        <v>1.1809999999999967</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>11</v>
       </c>
@@ -7332,8 +8097,20 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H56" s="20">
+        <f t="shared" si="3"/>
+        <v>-1.5150000000000006</v>
+      </c>
+      <c r="I56" s="20">
+        <f t="shared" si="4"/>
+        <v>0.3089999999999995</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>11</v>
       </c>
@@ -7354,8 +8131,20 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G57">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H57" s="20">
+        <f t="shared" si="3"/>
+        <v>0.17600000000000193</v>
+      </c>
+      <c r="I57" s="20">
+        <f t="shared" si="4"/>
+        <v>1.913000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>12</v>
       </c>
@@ -7376,8 +8165,20 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H58" s="20">
+        <f t="shared" si="3"/>
+        <v>-0.73699999999999477</v>
+      </c>
+      <c r="I58" s="20">
+        <f t="shared" si="4"/>
+        <v>1.1740000000000053</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>11</v>
       </c>
@@ -7398,8 +8199,20 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H59" s="20">
+        <f t="shared" si="3"/>
+        <v>1.0889999999999986</v>
+      </c>
+      <c r="I59" s="20">
+        <f t="shared" si="4"/>
+        <v>2.5269999999999984</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>11</v>
       </c>
@@ -7420,8 +8233,20 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G60">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H60" s="20">
+        <f t="shared" si="3"/>
+        <v>4.5619999999999976</v>
+      </c>
+      <c r="I60" s="20">
+        <f t="shared" si="4"/>
+        <v>5.8019999999999978</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>12</v>
       </c>
@@ -7442,8 +8267,20 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H61" s="20">
+        <f t="shared" si="3"/>
+        <v>-0.23999999999999488</v>
+      </c>
+      <c r="I61" s="20">
+        <f t="shared" si="4"/>
+        <v>1.5800000000000052</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>11</v>
       </c>
@@ -7464,8 +8301,20 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G62">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H62" s="20">
+        <f t="shared" si="3"/>
+        <v>2.1800000000000068</v>
+      </c>
+      <c r="I62" s="20">
+        <f t="shared" si="4"/>
+        <v>3.9210000000000069</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -7486,8 +8335,20 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G63">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H63" s="20">
+        <f t="shared" si="3"/>
+        <v>0.25900000000000034</v>
+      </c>
+      <c r="I63" s="20">
+        <f t="shared" si="4"/>
+        <v>1.2870000000000004</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>12</v>
       </c>
@@ -7508,8 +8369,20 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H64" s="20">
+        <f t="shared" si="3"/>
+        <v>3.9719999999999942</v>
+      </c>
+      <c r="I64" s="20">
+        <f t="shared" si="4"/>
+        <v>5.8529999999999944</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>11</v>
       </c>
@@ -7530,8 +8403,20 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H65" s="20">
+        <f t="shared" si="3"/>
+        <v>1.1189999999999998</v>
+      </c>
+      <c r="I65" s="20">
+        <f t="shared" si="4"/>
+        <v>2.1369999999999996</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>11</v>
       </c>
@@ -7552,8 +8437,20 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G66">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H66" s="20">
+        <f t="shared" si="3"/>
+        <v>-1.8000000000000682E-2</v>
+      </c>
+      <c r="I66" s="20">
+        <f t="shared" si="4"/>
+        <v>1.7479999999999993</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>11</v>
       </c>
@@ -7567,15 +8464,27 @@
         <v>130.34100000000001</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E130" si="2">IF(A67="CHILD",C67,-C67)</f>
+        <f t="shared" ref="E67:E130" si="5">IF(A67="CHILD",C67,-C67)</f>
         <v>1.341</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F130" si="3">IF(A67="CHILD",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" ref="F67:F130" si="6">IF(A67="CHILD",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H67" s="20">
+        <f t="shared" si="3"/>
+        <v>-0.76599999999999113</v>
+      </c>
+      <c r="I67" s="20">
+        <f t="shared" si="4"/>
+        <v>0.57500000000000884</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>11</v>
       </c>
@@ -7589,15 +8498,27 @@
         <v>131.55699999999999</v>
       </c>
       <c r="E68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.5569999999999999</v>
       </c>
       <c r="F68">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <f t="shared" ref="G68:G131" si="7">F67+F68</f>
+        <v>2</v>
+      </c>
+      <c r="H68" s="20">
+        <f t="shared" ref="H68:H131" si="8">B68-(B67+C67)</f>
+        <v>-0.34100000000000819</v>
+      </c>
+      <c r="I68" s="20">
+        <f t="shared" si="4"/>
+        <v>1.2159999999999918</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>11</v>
       </c>
@@ -7611,15 +8532,27 @@
         <v>133.33799999999999</v>
       </c>
       <c r="E69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.3380000000000001</v>
       </c>
       <c r="F69">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="H69" s="20">
+        <f t="shared" si="8"/>
+        <v>0.44300000000001205</v>
+      </c>
+      <c r="I69" s="20">
+        <f t="shared" ref="I69:I132" si="9">H69+C69</f>
+        <v>1.7810000000000121</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>12</v>
       </c>
@@ -7633,15 +8566,27 @@
         <v>135.321</v>
       </c>
       <c r="E70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-1.321</v>
       </c>
       <c r="F70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H70" s="20">
+        <f t="shared" si="8"/>
+        <v>0.66200000000000614</v>
+      </c>
+      <c r="I70" s="20">
+        <f t="shared" si="9"/>
+        <v>1.9830000000000061</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>11</v>
       </c>
@@ -7655,15 +8600,27 @@
         <v>135.422</v>
       </c>
       <c r="E71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.4219999999999999</v>
       </c>
       <c r="F71">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H71" s="20">
+        <f t="shared" si="8"/>
+        <v>-1.320999999999998</v>
+      </c>
+      <c r="I71" s="20">
+        <f t="shared" si="9"/>
+        <v>0.10100000000000198</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>12</v>
       </c>
@@ -7677,15 +8634,27 @@
         <v>136.154</v>
       </c>
       <c r="E72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-1.1539999999999999</v>
       </c>
       <c r="F72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G72">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H72" s="20">
+        <f t="shared" si="8"/>
+        <v>-0.42199999999999704</v>
+      </c>
+      <c r="I72" s="20">
+        <f t="shared" si="9"/>
+        <v>0.73200000000000287</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>11</v>
       </c>
@@ -7699,15 +8668,27 @@
         <v>158.94999999999999</v>
       </c>
       <c r="E73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.95</v>
       </c>
       <c r="F73">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H73" s="20">
+        <f t="shared" si="8"/>
+        <v>20.846000000000004</v>
+      </c>
+      <c r="I73" s="20">
+        <f t="shared" si="9"/>
+        <v>22.796000000000003</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>11</v>
       </c>
@@ -7721,15 +8702,27 @@
         <v>161.31800000000001</v>
       </c>
       <c r="E74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.3180000000000001</v>
       </c>
       <c r="F74">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="H74" s="20">
+        <f t="shared" si="8"/>
+        <v>1.0500000000000114</v>
+      </c>
+      <c r="I74" s="20">
+        <f t="shared" si="9"/>
+        <v>2.3680000000000114</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>11</v>
       </c>
@@ -7743,15 +8736,27 @@
         <v>163.37700000000001</v>
       </c>
       <c r="E75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.377</v>
       </c>
       <c r="F75">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="H75" s="20">
+        <f t="shared" si="8"/>
+        <v>0.68199999999998795</v>
+      </c>
+      <c r="I75" s="20">
+        <f t="shared" si="9"/>
+        <v>2.0589999999999877</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>12</v>
       </c>
@@ -7765,15 +8770,27 @@
         <v>168.661</v>
       </c>
       <c r="E76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-1.661</v>
       </c>
       <c r="F76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G76">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H76" s="20">
+        <f t="shared" si="8"/>
+        <v>3.6229999999999905</v>
+      </c>
+      <c r="I76" s="20">
+        <f t="shared" si="9"/>
+        <v>5.28399999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>11</v>
       </c>
@@ -7787,15 +8804,27 @@
         <v>170.279</v>
       </c>
       <c r="E77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2789999999999999</v>
       </c>
       <c r="F77">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H77" s="20">
+        <f t="shared" si="8"/>
+        <v>0.33899999999999864</v>
+      </c>
+      <c r="I77" s="20">
+        <f t="shared" si="9"/>
+        <v>1.6179999999999986</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>11</v>
       </c>
@@ -7809,15 +8838,27 @@
         <v>170.73099999999999</v>
       </c>
       <c r="E78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.7310000000000001</v>
       </c>
       <c r="F78">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="H78" s="20">
+        <f t="shared" si="8"/>
+        <v>-1.2789999999999964</v>
+      </c>
+      <c r="I78" s="20">
+        <f t="shared" si="9"/>
+        <v>0.45200000000000373</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>11</v>
       </c>
@@ -7831,15 +8872,27 @@
         <v>174.155</v>
       </c>
       <c r="E79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.155</v>
       </c>
       <c r="F79">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="H79" s="20">
+        <f t="shared" si="8"/>
+        <v>2.2690000000000055</v>
+      </c>
+      <c r="I79" s="20">
+        <f t="shared" si="9"/>
+        <v>3.4240000000000057</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>11</v>
       </c>
@@ -7853,15 +8906,27 @@
         <v>174.785</v>
       </c>
       <c r="E80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.7849999999999999</v>
       </c>
       <c r="F80">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="H80" s="20">
+        <f t="shared" si="8"/>
+        <v>-1.1550000000000011</v>
+      </c>
+      <c r="I80" s="20">
+        <f t="shared" si="9"/>
+        <v>0.62999999999999878</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>11</v>
       </c>
@@ -7875,15 +8940,27 @@
         <v>174.03399999999999</v>
       </c>
       <c r="E81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.034</v>
       </c>
       <c r="F81">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="H81" s="20">
+        <f t="shared" si="8"/>
+        <v>-1.7849999999999966</v>
+      </c>
+      <c r="I81" s="20">
+        <f t="shared" si="9"/>
+        <v>-0.75099999999999656</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>11</v>
       </c>
@@ -7897,15 +8974,27 @@
         <v>177.762</v>
       </c>
       <c r="E82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.762</v>
       </c>
       <c r="F82">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="H82" s="20">
+        <f t="shared" si="8"/>
+        <v>1.9660000000000082</v>
+      </c>
+      <c r="I82" s="20">
+        <f t="shared" si="9"/>
+        <v>3.7280000000000082</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>11</v>
       </c>
@@ -7919,15 +9008,27 @@
         <v>177.87700000000001</v>
       </c>
       <c r="E83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.877</v>
       </c>
       <c r="F83">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="H83" s="20">
+        <f t="shared" si="8"/>
+        <v>-1.7620000000000005</v>
+      </c>
+      <c r="I83" s="20">
+        <f t="shared" si="9"/>
+        <v>0.11499999999999955</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>12</v>
       </c>
@@ -7941,15 +9042,27 @@
         <v>179.601</v>
       </c>
       <c r="E84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-1.601</v>
       </c>
       <c r="F84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G84">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H84" s="20">
+        <f t="shared" si="8"/>
+        <v>0.12299999999999045</v>
+      </c>
+      <c r="I84" s="20">
+        <f t="shared" si="9"/>
+        <v>1.7239999999999904</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>11</v>
       </c>
@@ -7963,15 +9076,27 @@
         <v>180.28399999999999</v>
       </c>
       <c r="E85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.284</v>
       </c>
       <c r="F85">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H85" s="20">
+        <f t="shared" si="8"/>
+        <v>-0.60099999999999909</v>
+      </c>
+      <c r="I85" s="20">
+        <f t="shared" si="9"/>
+        <v>0.68300000000000094</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>11</v>
       </c>
@@ -7985,15 +9110,27 @@
         <v>180.09</v>
       </c>
       <c r="E86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.0900000000000001</v>
       </c>
       <c r="F86">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="H86" s="20">
+        <f t="shared" si="8"/>
+        <v>-1.2839999999999918</v>
+      </c>
+      <c r="I86" s="20">
+        <f t="shared" si="9"/>
+        <v>-0.19399999999999173</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>12</v>
       </c>
@@ -8007,15 +9144,27 @@
         <v>186.21899999999999</v>
       </c>
       <c r="E87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-1.2190000000000001</v>
       </c>
       <c r="F87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G87">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H87" s="20">
+        <f t="shared" si="8"/>
+        <v>4.9099999999999966</v>
+      </c>
+      <c r="I87" s="20">
+        <f t="shared" si="9"/>
+        <v>6.1289999999999969</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>12</v>
       </c>
@@ -8029,15 +9178,27 @@
         <v>189.48099999999999</v>
       </c>
       <c r="E88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-1.4810000000000001</v>
       </c>
       <c r="F88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G88">
+        <f t="shared" si="7"/>
+        <v>-2</v>
+      </c>
+      <c r="H88" s="20">
+        <f t="shared" si="8"/>
+        <v>1.7810000000000059</v>
+      </c>
+      <c r="I88" s="20">
+        <f t="shared" si="9"/>
+        <v>3.2620000000000058</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>12</v>
       </c>
@@ -8051,15 +9212,27 @@
         <v>191.869</v>
       </c>
       <c r="E89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-1.869</v>
       </c>
       <c r="F89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G89">
+        <f t="shared" si="7"/>
+        <v>-2</v>
+      </c>
+      <c r="H89" s="20">
+        <f t="shared" si="8"/>
+        <v>0.51900000000000546</v>
+      </c>
+      <c r="I89" s="20">
+        <f t="shared" si="9"/>
+        <v>2.3880000000000052</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>11</v>
       </c>
@@ -8073,15 +9246,27 @@
         <v>192.15700000000001</v>
       </c>
       <c r="E90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.157</v>
       </c>
       <c r="F90">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H90" s="20">
+        <f t="shared" si="8"/>
+        <v>-0.86899999999999977</v>
+      </c>
+      <c r="I90" s="20">
+        <f t="shared" si="9"/>
+        <v>0.28800000000000026</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>12</v>
       </c>
@@ -8095,15 +9280,27 @@
         <v>193.108</v>
       </c>
       <c r="E91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-1.1080000000000001</v>
       </c>
       <c r="F91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G91">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H91" s="20">
+        <f t="shared" si="8"/>
+        <v>-0.15700000000001069</v>
+      </c>
+      <c r="I91" s="20">
+        <f t="shared" si="9"/>
+        <v>0.95099999999998941</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>12</v>
       </c>
@@ -8117,15 +9314,27 @@
         <v>198.51900000000001</v>
       </c>
       <c r="E92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-1.5189999999999999</v>
       </c>
       <c r="F92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G92">
+        <f t="shared" si="7"/>
+        <v>-2</v>
+      </c>
+      <c r="H92" s="20">
+        <f t="shared" si="8"/>
+        <v>3.8919999999999959</v>
+      </c>
+      <c r="I92" s="20">
+        <f t="shared" si="9"/>
+        <v>5.410999999999996</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>12</v>
       </c>
@@ -8139,15 +9348,27 @@
         <v>201.94</v>
       </c>
       <c r="E93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-1.94</v>
       </c>
       <c r="F93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G93">
+        <f t="shared" si="7"/>
+        <v>-2</v>
+      </c>
+      <c r="H93" s="20">
+        <f t="shared" si="8"/>
+        <v>1.4809999999999945</v>
+      </c>
+      <c r="I93" s="20">
+        <f t="shared" si="9"/>
+        <v>3.4209999999999945</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>11</v>
       </c>
@@ -8161,15 +9382,27 @@
         <v>202.92400000000001</v>
       </c>
       <c r="E94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.9239999999999999</v>
       </c>
       <c r="F94">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H94" s="20">
+        <f t="shared" si="8"/>
+        <v>-0.93999999999999773</v>
+      </c>
+      <c r="I94" s="20">
+        <f t="shared" si="9"/>
+        <v>0.98400000000000221</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>11</v>
       </c>
@@ -8183,15 +9416,27 @@
         <v>204.61600000000001</v>
       </c>
       <c r="E95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.6160000000000001</v>
       </c>
       <c r="F95">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="H95" s="20">
+        <f t="shared" si="8"/>
+        <v>7.5999999999993406E-2</v>
+      </c>
+      <c r="I95" s="20">
+        <f t="shared" si="9"/>
+        <v>1.6919999999999935</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>11</v>
       </c>
@@ -8205,15 +9450,27 @@
         <v>205.29300000000001</v>
       </c>
       <c r="E96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2929999999999999</v>
       </c>
       <c r="F96">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="H96" s="20">
+        <f t="shared" si="8"/>
+        <v>-0.61600000000001387</v>
+      </c>
+      <c r="I96" s="20">
+        <f t="shared" si="9"/>
+        <v>0.67699999999998606</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>11</v>
       </c>
@@ -8227,15 +9484,27 @@
         <v>208.47800000000001</v>
       </c>
       <c r="E97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.478</v>
       </c>
       <c r="F97">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="H97" s="20">
+        <f t="shared" si="8"/>
+        <v>1.7069999999999936</v>
+      </c>
+      <c r="I97" s="20">
+        <f t="shared" si="9"/>
+        <v>3.1849999999999934</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>11</v>
       </c>
@@ -8249,15 +9518,27 @@
         <v>210.364</v>
       </c>
       <c r="E98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.3640000000000001</v>
       </c>
       <c r="F98">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="H98" s="20">
+        <f t="shared" si="8"/>
+        <v>0.52199999999999136</v>
+      </c>
+      <c r="I98" s="20">
+        <f t="shared" si="9"/>
+        <v>1.8859999999999915</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>11</v>
       </c>
@@ -8271,15 +9552,27 @@
         <v>218.119</v>
       </c>
       <c r="E99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.119</v>
       </c>
       <c r="F99">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="H99" s="20">
+        <f t="shared" si="8"/>
+        <v>6.6359999999999957</v>
+      </c>
+      <c r="I99" s="20">
+        <f t="shared" si="9"/>
+        <v>7.7549999999999955</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>11</v>
       </c>
@@ -8293,15 +9586,27 @@
         <v>222.803</v>
       </c>
       <c r="E100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.8029999999999999</v>
       </c>
       <c r="F100">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="H100" s="20">
+        <f t="shared" si="8"/>
+        <v>2.8810000000000002</v>
+      </c>
+      <c r="I100" s="20">
+        <f t="shared" si="9"/>
+        <v>4.6840000000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>11</v>
       </c>
@@ -8315,15 +9620,27 @@
         <v>223.697</v>
       </c>
       <c r="E101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.6970000000000001</v>
       </c>
       <c r="F101">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="H101" s="20">
+        <f t="shared" si="8"/>
+        <v>-0.80299999999999727</v>
+      </c>
+      <c r="I101" s="20">
+        <f t="shared" si="9"/>
+        <v>0.89400000000000279</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>12</v>
       </c>
@@ -8337,15 +9654,27 @@
         <v>226.43799999999999</v>
       </c>
       <c r="E102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-1.4379999999999999</v>
       </c>
       <c r="F102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G102">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H102" s="20">
+        <f t="shared" si="8"/>
+        <v>1.3029999999999973</v>
+      </c>
+      <c r="I102" s="20">
+        <f t="shared" si="9"/>
+        <v>2.740999999999997</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>12</v>
       </c>
@@ -8359,15 +9688,27 @@
         <v>228.286</v>
       </c>
       <c r="E103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-1.286</v>
       </c>
       <c r="F103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G103">
+        <f t="shared" si="7"/>
+        <v>-2</v>
+      </c>
+      <c r="H103" s="20">
+        <f t="shared" si="8"/>
+        <v>0.56200000000001182</v>
+      </c>
+      <c r="I103" s="20">
+        <f t="shared" si="9"/>
+        <v>1.8480000000000119</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>12</v>
       </c>
@@ -8381,15 +9722,27 @@
         <v>229.35900000000001</v>
       </c>
       <c r="E104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-1.359</v>
       </c>
       <c r="F104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G104">
+        <f t="shared" si="7"/>
+        <v>-2</v>
+      </c>
+      <c r="H104" s="20">
+        <f t="shared" si="8"/>
+        <v>-0.28600000000000136</v>
+      </c>
+      <c r="I104" s="20">
+        <f t="shared" si="9"/>
+        <v>1.0729999999999986</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>11</v>
       </c>
@@ -8403,15 +9756,27 @@
         <v>230.547</v>
       </c>
       <c r="E105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.5469999999999999</v>
       </c>
       <c r="F105">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H105" s="20">
+        <f t="shared" si="8"/>
+        <v>-0.35900000000000887</v>
+      </c>
+      <c r="I105" s="20">
+        <f t="shared" si="9"/>
+        <v>1.1879999999999911</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>11</v>
       </c>
@@ -8425,15 +9790,27 @@
         <v>232.05500000000001</v>
       </c>
       <c r="E106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.0549999999999999</v>
       </c>
       <c r="F106">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="H106" s="20">
+        <f t="shared" si="8"/>
+        <v>0.45300000000000296</v>
+      </c>
+      <c r="I106" s="20">
+        <f t="shared" si="9"/>
+        <v>1.5080000000000029</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>11</v>
       </c>
@@ -8447,15 +9824,27 @@
         <v>234.18799999999999</v>
       </c>
       <c r="E107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.1879999999999999</v>
       </c>
       <c r="F107">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="H107" s="20">
+        <f t="shared" si="8"/>
+        <v>0.94499999999999318</v>
+      </c>
+      <c r="I107" s="20">
+        <f t="shared" si="9"/>
+        <v>2.1329999999999929</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>12</v>
       </c>
@@ -8469,15 +9858,27 @@
         <v>237.68199999999999</v>
       </c>
       <c r="E108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-1.6819999999999999</v>
       </c>
       <c r="F108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G108">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H108" s="20">
+        <f t="shared" si="8"/>
+        <v>1.8120000000000118</v>
+      </c>
+      <c r="I108" s="20">
+        <f t="shared" si="9"/>
+        <v>3.4940000000000118</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>12</v>
       </c>
@@ -8491,15 +9892,27 @@
         <v>239.88499999999999</v>
       </c>
       <c r="E109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-1.885</v>
       </c>
       <c r="F109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G109">
+        <f t="shared" si="7"/>
+        <v>-2</v>
+      </c>
+      <c r="H109" s="20">
+        <f t="shared" si="8"/>
+        <v>0.31800000000001205</v>
+      </c>
+      <c r="I109" s="20">
+        <f t="shared" si="9"/>
+        <v>2.2030000000000118</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>12</v>
       </c>
@@ -8513,15 +9926,27 @@
         <v>240.845</v>
       </c>
       <c r="E110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-1.845</v>
       </c>
       <c r="F110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G110">
+        <f t="shared" si="7"/>
+        <v>-2</v>
+      </c>
+      <c r="H110" s="20">
+        <f t="shared" si="8"/>
+        <v>-0.88499999999999091</v>
+      </c>
+      <c r="I110" s="20">
+        <f t="shared" si="9"/>
+        <v>0.96000000000000907</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>11</v>
       </c>
@@ -8535,15 +9960,27 @@
         <v>242.45</v>
       </c>
       <c r="E111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.45</v>
       </c>
       <c r="F111">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H111" s="20">
+        <f t="shared" si="8"/>
+        <v>0.15500000000000114</v>
+      </c>
+      <c r="I111" s="20">
+        <f t="shared" si="9"/>
+        <v>1.6050000000000011</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>12</v>
       </c>
@@ -8557,15 +9994,27 @@
         <v>245.196</v>
       </c>
       <c r="E112">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-1.196</v>
       </c>
       <c r="F112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G112">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H112" s="20">
+        <f t="shared" si="8"/>
+        <v>1.5500000000000114</v>
+      </c>
+      <c r="I112" s="20">
+        <f t="shared" si="9"/>
+        <v>2.7460000000000111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>12</v>
       </c>
@@ -8579,15 +10028,27 @@
         <v>247.00800000000001</v>
       </c>
       <c r="E113">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-1.008</v>
       </c>
       <c r="F113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G113">
+        <f t="shared" si="7"/>
+        <v>-2</v>
+      </c>
+      <c r="H113" s="20">
+        <f t="shared" si="8"/>
+        <v>0.80400000000000205</v>
+      </c>
+      <c r="I113" s="20">
+        <f t="shared" si="9"/>
+        <v>1.8120000000000021</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>11</v>
       </c>
@@ -8601,15 +10062,27 @@
         <v>248.02799999999999</v>
       </c>
       <c r="E114">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.028</v>
       </c>
       <c r="F114">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H114" s="20">
+        <f t="shared" si="8"/>
+        <v>-8.0000000000097771E-3</v>
+      </c>
+      <c r="I114" s="20">
+        <f t="shared" si="9"/>
+        <v>1.0199999999999902</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>12</v>
       </c>
@@ -8623,15 +10096,27 @@
         <v>249.512</v>
       </c>
       <c r="E115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-1.512</v>
       </c>
       <c r="F115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G115">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H115" s="20">
+        <f t="shared" si="8"/>
+        <v>-2.7999999999991587E-2</v>
+      </c>
+      <c r="I115" s="20">
+        <f t="shared" si="9"/>
+        <v>1.4840000000000084</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>11</v>
       </c>
@@ -8645,15 +10130,27 @@
         <v>252.66800000000001</v>
       </c>
       <c r="E116">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.6679999999999999</v>
       </c>
       <c r="F116">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H116" s="20">
+        <f t="shared" si="8"/>
+        <v>1.4879999999999995</v>
+      </c>
+      <c r="I116" s="20">
+        <f t="shared" si="9"/>
+        <v>3.1559999999999997</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>11</v>
       </c>
@@ -8667,15 +10164,27 @@
         <v>252.505</v>
       </c>
       <c r="E117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.5049999999999999</v>
       </c>
       <c r="F117">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="H117" s="20">
+        <f t="shared" si="8"/>
+        <v>-1.6680000000000064</v>
+      </c>
+      <c r="I117" s="20">
+        <f t="shared" si="9"/>
+        <v>-0.16300000000000647</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>12</v>
       </c>
@@ -8689,15 +10198,27 @@
         <v>253.47</v>
       </c>
       <c r="E118">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-1.47</v>
       </c>
       <c r="F118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G118">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H118" s="20">
+        <f t="shared" si="8"/>
+        <v>-0.50499999999999545</v>
+      </c>
+      <c r="I118" s="20">
+        <f t="shared" si="9"/>
+        <v>0.96500000000000452</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>11</v>
       </c>
@@ -8711,15 +10232,27 @@
         <v>254.88499999999999</v>
       </c>
       <c r="E119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.885</v>
       </c>
       <c r="F119">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H119" s="20">
+        <f t="shared" si="8"/>
+        <v>-0.46999999999999886</v>
+      </c>
+      <c r="I119" s="20">
+        <f t="shared" si="9"/>
+        <v>1.4150000000000011</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>11</v>
       </c>
@@ -8733,15 +10266,27 @@
         <v>255.41</v>
       </c>
       <c r="E120">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.41</v>
       </c>
       <c r="F120">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="H120" s="20">
+        <f t="shared" si="8"/>
+        <v>-0.88499999999999091</v>
+      </c>
+      <c r="I120" s="20">
+        <f t="shared" si="9"/>
+        <v>0.52500000000000902</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>12</v>
       </c>
@@ -8755,15 +10300,27 @@
         <v>256.41800000000001</v>
       </c>
       <c r="E121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-1.4179999999999999</v>
       </c>
       <c r="F121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G121">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H121" s="20">
+        <f t="shared" si="8"/>
+        <v>-0.40999999999999659</v>
+      </c>
+      <c r="I121" s="20">
+        <f t="shared" si="9"/>
+        <v>1.0080000000000033</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>11</v>
       </c>
@@ -8777,15 +10334,27 @@
         <v>259.26400000000001</v>
       </c>
       <c r="E122">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.264</v>
       </c>
       <c r="F122">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H122" s="20">
+        <f t="shared" si="8"/>
+        <v>1.5819999999999936</v>
+      </c>
+      <c r="I122" s="20">
+        <f t="shared" si="9"/>
+        <v>2.8459999999999939</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>12</v>
       </c>
@@ -8799,15 +10368,27 @@
         <v>262.76400000000001</v>
       </c>
       <c r="E123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-1.764</v>
       </c>
       <c r="F123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G123">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H123" s="20">
+        <f t="shared" si="8"/>
+        <v>1.73599999999999</v>
+      </c>
+      <c r="I123" s="20">
+        <f t="shared" si="9"/>
+        <v>3.4999999999999902</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>12</v>
       </c>
@@ -8821,15 +10402,27 @@
         <v>266.82900000000001</v>
       </c>
       <c r="E124">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-1.829</v>
       </c>
       <c r="F124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G124">
+        <f t="shared" si="7"/>
+        <v>-2</v>
+      </c>
+      <c r="H124" s="20">
+        <f t="shared" si="8"/>
+        <v>2.23599999999999</v>
+      </c>
+      <c r="I124" s="20">
+        <f t="shared" si="9"/>
+        <v>4.0649999999999897</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>11</v>
       </c>
@@ -8843,15 +10436,27 @@
         <v>267.96600000000001</v>
       </c>
       <c r="E125">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.966</v>
       </c>
       <c r="F125">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H125" s="20">
+        <f t="shared" si="8"/>
+        <v>-0.82900000000000773</v>
+      </c>
+      <c r="I125" s="20">
+        <f t="shared" si="9"/>
+        <v>1.1369999999999922</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>12</v>
       </c>
@@ -8865,15 +10470,27 @@
         <v>271.22500000000002</v>
       </c>
       <c r="E126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-1.2250000000000001</v>
       </c>
       <c r="F126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G126">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H126" s="20">
+        <f t="shared" si="8"/>
+        <v>2.0339999999999918</v>
+      </c>
+      <c r="I126" s="20">
+        <f t="shared" si="9"/>
+        <v>3.2589999999999919</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>11</v>
       </c>
@@ -8887,15 +10504,27 @@
         <v>274.99700000000001</v>
       </c>
       <c r="E127">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.9970000000000001</v>
       </c>
       <c r="F127">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H127" s="20">
+        <f t="shared" si="8"/>
+        <v>1.7749999999999773</v>
+      </c>
+      <c r="I127" s="20">
+        <f t="shared" si="9"/>
+        <v>3.7719999999999771</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>11</v>
       </c>
@@ -8909,15 +10538,27 @@
         <v>275.67200000000003</v>
       </c>
       <c r="E128">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.6719999999999999</v>
       </c>
       <c r="F128">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="H128" s="20">
+        <f t="shared" si="8"/>
+        <v>-0.9970000000000141</v>
+      </c>
+      <c r="I128" s="20">
+        <f t="shared" si="9"/>
+        <v>0.67499999999998583</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>11</v>
       </c>
@@ -8931,15 +10572,27 @@
         <v>278.43099999999998</v>
       </c>
       <c r="E129">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.431</v>
       </c>
       <c r="F129">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="H129" s="20">
+        <f t="shared" si="8"/>
+        <v>1.3279999999999745</v>
+      </c>
+      <c r="I129" s="20">
+        <f t="shared" si="9"/>
+        <v>2.7589999999999746</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>12</v>
       </c>
@@ -8953,15 +10606,27 @@
         <v>282.13900000000001</v>
       </c>
       <c r="E130">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-1.139</v>
       </c>
       <c r="F130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G130">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H130" s="20">
+        <f t="shared" si="8"/>
+        <v>2.5690000000000168</v>
+      </c>
+      <c r="I130" s="20">
+        <f t="shared" si="9"/>
+        <v>3.7080000000000171</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>11</v>
       </c>
@@ -8975,15 +10640,27 @@
         <v>282.048</v>
       </c>
       <c r="E131">
-        <f t="shared" ref="E131:E140" si="4">IF(A131="CHILD",C131,-C131)</f>
+        <f t="shared" ref="E131:E140" si="10">IF(A131="CHILD",C131,-C131)</f>
         <v>1.048</v>
       </c>
       <c r="F131">
-        <f t="shared" ref="F131:F140" si="5">IF(A131="CHILD",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" ref="F131:F140" si="11">IF(A131="CHILD",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="G131">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H131" s="20">
+        <f t="shared" si="8"/>
+        <v>-1.13900000000001</v>
+      </c>
+      <c r="I131" s="20">
+        <f t="shared" si="9"/>
+        <v>-9.1000000000009962E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>12</v>
       </c>
@@ -8997,15 +10674,27 @@
         <v>284.43400000000003</v>
       </c>
       <c r="E132">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-1.4339999999999999</v>
       </c>
       <c r="F132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G132">
+        <f t="shared" ref="G132:G140" si="12">F131+F132</f>
+        <v>0</v>
+      </c>
+      <c r="H132" s="20">
+        <f t="shared" ref="H132:H140" si="13">B132-(B131+C131)</f>
+        <v>0.95199999999999818</v>
+      </c>
+      <c r="I132" s="20">
+        <f t="shared" si="9"/>
+        <v>2.3859999999999983</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>11</v>
       </c>
@@ -9019,15 +10708,27 @@
         <v>291.46300000000002</v>
       </c>
       <c r="E133">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.4630000000000001</v>
       </c>
       <c r="F133">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H133" s="20">
+        <f t="shared" si="13"/>
+        <v>5.5659999999999741</v>
+      </c>
+      <c r="I133" s="20">
+        <f t="shared" ref="I133:I140" si="14">H133+C133</f>
+        <v>7.0289999999999742</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>12</v>
       </c>
@@ -9041,15 +10742,27 @@
         <v>292.69400000000002</v>
       </c>
       <c r="E134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-1.694</v>
       </c>
       <c r="F134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G134">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H134" s="20">
+        <f t="shared" si="13"/>
+        <v>-0.46300000000002228</v>
+      </c>
+      <c r="I134" s="20">
+        <f t="shared" si="14"/>
+        <v>1.2309999999999777</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>11</v>
       </c>
@@ -9063,15 +10776,27 @@
         <v>293.50799999999998</v>
       </c>
       <c r="E135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.508</v>
       </c>
       <c r="F135">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H135" s="20">
+        <f t="shared" si="13"/>
+        <v>-0.69400000000001683</v>
+      </c>
+      <c r="I135" s="20">
+        <f t="shared" si="14"/>
+        <v>0.81399999999998318</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>11</v>
       </c>
@@ -9085,15 +10810,27 @@
         <v>296.94299999999998</v>
       </c>
       <c r="E136">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.9430000000000001</v>
       </c>
       <c r="F136">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="H136" s="20">
+        <f t="shared" si="13"/>
+        <v>1.4920000000000186</v>
+      </c>
+      <c r="I136" s="20">
+        <f t="shared" si="14"/>
+        <v>3.4350000000000187</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>12</v>
       </c>
@@ -9107,15 +10844,27 @@
         <v>297.44600000000003</v>
       </c>
       <c r="E137">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-1.446</v>
       </c>
       <c r="F137">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G137">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H137" s="20">
+        <f t="shared" si="13"/>
+        <v>-0.94299999999998363</v>
+      </c>
+      <c r="I137" s="20">
+        <f t="shared" si="14"/>
+        <v>0.50300000000001632</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>11</v>
       </c>
@@ -9129,15 +10878,27 @@
         <v>299.17099999999999</v>
       </c>
       <c r="E138">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.171</v>
       </c>
       <c r="F138">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H138" s="20">
+        <f t="shared" si="13"/>
+        <v>0.55399999999997362</v>
+      </c>
+      <c r="I138" s="20">
+        <f t="shared" si="14"/>
+        <v>1.7249999999999737</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>12</v>
       </c>
@@ -9151,15 +10912,27 @@
         <v>300.452</v>
       </c>
       <c r="E139">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-1.452</v>
       </c>
       <c r="F139">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G139">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H139" s="20">
+        <f t="shared" si="13"/>
+        <v>-0.17099999999999227</v>
+      </c>
+      <c r="I139" s="20">
+        <f t="shared" si="14"/>
+        <v>1.2810000000000077</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>11</v>
       </c>
@@ -9173,18 +10946,36 @@
         <v>300.31900000000002</v>
       </c>
       <c r="E140">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.319</v>
       </c>
       <c r="F140">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G140">
+        <f>F139+F140</f>
+        <v>0</v>
+      </c>
+      <c r="H140" s="20">
+        <f t="shared" si="13"/>
+        <v>-1.4519999999999982</v>
+      </c>
+      <c r="I140" s="20">
+        <f t="shared" si="14"/>
+        <v>-0.13299999999999823</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D140">
     <sortCondition ref="B2:B140"/>
   </sortState>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
+      <formula>0</formula>
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9192,179 +10983,343 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B311797-E815-1642-B83A-8BAD9C109213}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="12" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="11" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="11">
+      <c r="B1" s="10">
         <f>Speaker!B140+Speaker!C140-Speaker!B2</f>
         <v>300.30900000000003</v>
       </c>
-      <c r="E1" s="9">
-        <f>B1/60</f>
-        <v>5.0051500000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="11">
-        <f>SUMIF(Speech!A:A,Calcs!A3,Speech!B:B)</f>
+      <c r="E1" s="16" t="str">
+        <f>TEXT(B1/86400,CHOOSE(MATCH(B1,{0,60,3600},1),"s ""sec""","m ""min"" s ""sec""","[h] ""hrs"" m ""min"" s ""sec"""))</f>
+        <v>5 min 0 sec</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="17">
+        <f>COUNTA(Speaker!A2:A140)</f>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="10">
+        <f>B2/(B1/60)</f>
+        <v>27.771395462673443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10">
+        <f>SUMIF(Speech!A:A,Calcs!A5,Speech!B:B)</f>
         <v>137.72199999999998</v>
       </c>
-      <c r="C3" s="13">
-        <f>B3/B1</f>
+      <c r="C5" s="12">
+        <f>B5/B1</f>
         <v>0.45860097432977354</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="9">
-        <f>B3/60</f>
-        <v>2.2953666666666663</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="16" t="str">
+        <f>TEXT(B5/86400,CHOOSE(MATCH(B5,{0,60,3600},1),"s ""sec""","m ""min"" s ""sec""","[h] ""hrs"" m ""min"" s ""sec"""))</f>
+        <v>2 min 18 sec</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="11">
-        <f>B1-B3</f>
+      <c r="B6" s="10">
+        <f>B1-B5</f>
         <v>162.58700000000005</v>
       </c>
-      <c r="C4" s="13">
-        <f>B4/B1</f>
+      <c r="C6" s="12">
+        <f>B6/B1</f>
         <v>0.54139902567022646</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="9">
-        <f>B4/60</f>
-        <v>2.7097833333333341</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="16" t="str">
+        <f>TEXT(B6/86400,CHOOSE(MATCH(B6,{0,60,3600},1),"s ""sec""","m ""min"" s ""sec""","[h] ""hrs"" m ""min"" s ""sec"""))</f>
+        <v>2 min 43 sec</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="11">
-        <f>SUMIF(Speaker!A:A,A6,Speaker!C:C)</f>
+      <c r="B9" s="10">
+        <f>SUMIF(Speaker!A:A,A9,Speaker!C:C)</f>
         <v>85.781999999999982</v>
       </c>
-      <c r="C6" s="13">
-        <f>B6/B1</f>
+      <c r="C9" s="12">
+        <f>B9/B1</f>
         <v>0.28564578484161307</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="9">
-        <f>B6/60</f>
-        <v>1.4296999999999997</v>
-      </c>
-      <c r="F6" s="8">
-        <f>1-(E6/E7)</f>
-        <v>0.27971182427326335</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="11">
-        <f>SUMIF(Speaker!A:A,A7,Speaker!C:C)</f>
+      <c r="D9" s="12">
+        <f>B9/(B9+B10)</f>
+        <v>0.4187020441632987</v>
+      </c>
+      <c r="E9" s="16" t="str">
+        <f>TEXT(B9/86400,CHOOSE(MATCH(B9,{0,60,3600},1),"s ""sec""","m ""min"" s ""sec""","[h] ""hrs"" m ""min"" s ""sec"""))</f>
+        <v>1 min 26 sec</v>
+      </c>
+      <c r="F9" s="8">
+        <f>1-(B9/B10)</f>
+        <v>0.27971182427326347</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="10">
+        <f>SUMIF(Speaker!A:A,A10,Speaker!C:C)</f>
         <v>119.09400000000002</v>
       </c>
-      <c r="C7" s="13">
-        <f>B7/B1</f>
+      <c r="C10" s="12">
+        <f>B10/B1</f>
         <v>0.39657153132273765</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="9">
-        <f>B7/60</f>
-        <v>1.9849000000000003</v>
-      </c>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="D10" s="12">
+        <f>B10/(B9+B10)</f>
+        <v>0.5812979558367013</v>
+      </c>
+      <c r="E10" s="16" t="str">
+        <f>TEXT(B10/86400,CHOOSE(MATCH(B10,{0,60,3600},1),"s ""sec""","m ""min"" s ""sec""","[h] ""hrs"" m ""min"" s ""sec"""))</f>
+        <v>1 min 59 sec</v>
+      </c>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="11">
-        <f>B1-B6-B7</f>
+      <c r="B11" s="10">
+        <f>B1-B9-B10</f>
         <v>95.433000000000021</v>
       </c>
-      <c r="C8" s="13">
-        <f>B8/B1</f>
+      <c r="C11" s="12">
+        <f>B11/B1</f>
         <v>0.31778268383564934</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="9">
-        <f>B8/60</f>
-        <v>1.5905500000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="D11" s="12"/>
+      <c r="E11" s="16" t="str">
+        <f>TEXT(B11/86400,CHOOSE(MATCH(B11,{0,60,3600},1),"s ""sec""","m ""min"" s ""sec""","[h] ""hrs"" m ""min"" s ""sec"""))</f>
+        <v>1 min 35 sec</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B12" s="14">
+        <f>B9/B10</f>
+        <v>0.72028817572673653</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="13">
+        <f>B12*60</f>
+        <v>43.217290543604193</v>
+      </c>
+      <c r="E12" s="16" t="str">
+        <f>TEXT(D12/86400,CHOOSE(MATCH(D12,{0,60,3600},1),"s ""sec""","m ""min"" s ""sec""","[h] ""hrs"" m ""min"" s ""sec"""))</f>
+        <v>43 sec</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="14">
+        <f>F9</f>
+        <v>0.27971182427326347</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="15">
-        <f>F6</f>
-        <v>0.27971182427326335</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="14"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+      <c r="D13" s="13"/>
+      <c r="K13" s="19"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="12">
-        <f>COUNTIF(Speaker!A:A,Calcs!A12)</f>
+      <c r="B15" s="11">
+        <f>COUNTIF(Speaker!A:A,Calcs!A15)</f>
         <v>57</v>
       </c>
-      <c r="C12" s="11">
-        <f>B6/B12</f>
+      <c r="C15" s="14">
+        <f>B9/B15</f>
         <v>1.5049473684210524</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="12">
-        <f>COUNTIF(Speaker!A:A,Calcs!A13)</f>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="11">
+        <f>COUNTIF(Speaker!A:A,Calcs!A16)</f>
         <v>82</v>
       </c>
-      <c r="C13" s="11">
-        <f>B7/B13</f>
+      <c r="C16" s="14">
+        <f>B10/B16</f>
         <v>1.4523658536585369</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="11">
+        <f>B15/B16</f>
+        <v>0.69512195121951215</v>
+      </c>
+      <c r="C17" s="11">
+        <f>C15/C16</f>
+        <v>1.0362040422735508</v>
+      </c>
+      <c r="F17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="16" t="str">
+        <f>E9</f>
+        <v>1 min 26 sec</v>
+      </c>
+      <c r="H17" s="18">
+        <f>D9</f>
+        <v>0.4187020441632987</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="11">
+        <f>B16/B15</f>
+        <v>1.4385964912280702</v>
+      </c>
+      <c r="F18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="16" t="str">
+        <f>E10</f>
+        <v>1 min 59 sec</v>
+      </c>
+      <c r="H18" s="18">
+        <f>D10</f>
+        <v>0.5812979558367013</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="12">
+        <f>B15/(B15+B16)</f>
+        <v>0.41007194244604317</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="11">
+        <f>COUNTIF(Speaker!G:G,0)</f>
+        <v>74</v>
+      </c>
+      <c r="C21" s="11">
+        <f>B21/($B$1/60)</f>
+        <v>14.78477168516428</v>
+      </c>
+      <c r="D21" s="11">
+        <f>B21/$B$2</f>
+        <v>0.53237410071942448</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="11">
+        <f>COUNTIFS(Speaker!G:G,0,Speaker!H:H,"&lt;0")</f>
+        <v>34</v>
+      </c>
+      <c r="C23" s="11">
+        <f>B23/($B$1/60)</f>
+        <v>6.7930032066971018</v>
+      </c>
+      <c r="D23" s="11">
+        <f>B23/$B$2</f>
+        <v>0.2446043165467626</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="11">
+        <f>ABS(SUMIF(Speaker!H:H,"&lt;0",Speaker!H:H))</f>
+        <v>45.001000000000005</v>
+      </c>
+      <c r="E24" s="16" t="str">
+        <f>TEXT(B24/86400,CHOOSE(MATCH(B24,{0,60,3600},1),"s ""sec""","m ""min"" s ""sec""","[h] ""hrs"" m ""min"" s ""sec"""))</f>
+        <v>45 sec</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="11">
+        <f>COUNTIFS(Speaker!G:G,0,Speaker!I:I,"&lt;0")</f>
+        <v>2</v>
+      </c>
+      <c r="C26" s="11">
+        <f>B26/($B$1/60)</f>
+        <v>0.39958842392335892</v>
+      </c>
+      <c r="D26" s="11">
+        <f>B26/$B$2</f>
+        <v>1.4388489208633094E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="11">
+        <f>COUNTIF(Speaker!H:H, "&gt;0")</f>
+        <v>79</v>
+      </c>
+      <c r="C28" s="11">
+        <f>B28/($B$1/60)</f>
+        <v>15.783742744972677</v>
+      </c>
+      <c r="D28" s="11">
+        <f>B28/$B$2</f>
+        <v>0.56834532374100721</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="11">
+        <f>SUMIF(Speaker!H:H,"&gt;0",Speaker!H:H)</f>
+        <v>140.43399999999991</v>
+      </c>
+      <c r="E29" s="16" t="str">
+        <f>TEXT(B29/86400,CHOOSE(MATCH(B29,{0,60,3600},1),"s ""sec""","m ""min"" s ""sec""","[h] ""hrs"" m ""min"" s ""sec"""))</f>
+        <v>2 min 20 sec</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Sample Data.xlsx
+++ b/TestData/Sample Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annacjacobson/Desktop/teacherprints/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3414C4B3-6992-C544-96A6-74C8E5356FAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928D99D6-6AEE-8A4F-829D-018081975C22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29820" yWindow="900" windowWidth="34180" windowHeight="19700" activeTab="2" xr2:uid="{50F0849A-D355-473C-9659-D0CF6017E6A0}"/>
+    <workbookView xWindow="28820" yWindow="460" windowWidth="33180" windowHeight="19700" activeTab="4" xr2:uid="{50F0849A-D355-473C-9659-D0CF6017E6A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Speaker" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="_xlchart.v1.3" hidden="1">Pauses!$B$1</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Pauses!$B$2:$B$140</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Pauses!$F$2:$F$27</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Calcs!$A$1:$K$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Calcs!$A$1:$K$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Pauses!$I$17:$R$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -486,12 +486,6 @@
     <t>A turn is…</t>
   </si>
   <si>
-    <t>The students wait about 31% longer than the teacher to start a new turn.</t>
-  </si>
-  <si>
-    <t>The students' speech overlaps the teacher about 67% more.</t>
-  </si>
-  <si>
     <t>For every minute that the students held the floor, the teacher held the floor for 48 seconds.</t>
   </si>
   <si>
@@ -515,15 +509,22 @@
   <si>
     <t>An overap is…</t>
   </si>
+  <si>
+    <t>The students waited about 31% longer than the teacher to start a new turn.</t>
+  </si>
+  <si>
+    <t>When speech overlapped, the students' speech overlapped yours about 67% longer than the opposite.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="dd:hh"/>
+    <numFmt numFmtId="169" formatCode="0.000000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -771,7 +772,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -832,6 +833,9 @@
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1076,6 +1080,9 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="169" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1116,9 +1123,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF003262"/>
+      <color rgb="FF7FB378"/>
+      <color rgb="FFFDB515"/>
       <color rgb="FF00B0DA"/>
       <color rgb="FFFDB615"/>
-      <color rgb="FF003262"/>
       <color rgb="FF42BDE0"/>
       <color rgb="FFFEC866"/>
     </mruColors>
@@ -3212,6 +3221,249 @@
           <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0DA"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-0913-C145-B851-C6DC5DD7DB3C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="003262"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-0913-C145-B851-C6DC5DD7DB3C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FDB515"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-0913-C145-B851-C6DC5DD7DB3C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-0913-C145-B851-C6DC5DD7DB3C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Futura Medium" panose="020B0602020204020303" pitchFamily="34" charset="-79"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Futura Medium" panose="020B0602020204020303" pitchFamily="34" charset="-79"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ideas!$B$23:$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Teacher</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Overlaps</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Student</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Pauses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ideas!$C$23:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>84.759000000000128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.337999999999987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>111.99299999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.575999999999894</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0913-C145-B851-C6DC5DD7DB3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="50"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -3521,6 +3773,46 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6588,6 +6880,525 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6902,6 +7713,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>197971</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>55283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>708959</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>103095</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D52CA18-2DAA-7544-A6F3-921888867CC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
@@ -7206,7 +8058,7 @@
   <dimension ref="A1:I140"/>
   <sheetViews>
     <sheetView topLeftCell="A36" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H36" sqref="H1:H1048576"/>
+      <selection activeCell="A56" sqref="A56:E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14655,8 +15507,8 @@
   </sheetPr>
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14665,41 +15517,41 @@
     <col min="2" max="2" width="10.83203125" style="9"/>
     <col min="3" max="3" width="17.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="10" width="10.83203125" style="10" customWidth="1"/>
-    <col min="11" max="11" width="32.5" style="103" customWidth="1"/>
+    <col min="11" max="11" width="32.5" style="104" customWidth="1"/>
     <col min="12" max="12" width="12.6640625" style="10" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="18" customFormat="1" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="38"/>
-      <c r="B1" s="39" t="s">
+      <c r="A1" s="39"/>
+      <c r="B1" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="59" t="s">
+      <c r="H1" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="42" t="s">
         <v>76</v>
       </c>
       <c r="L1" s="17" t="s">
@@ -14710,68 +15562,68 @@
       <c r="O1" s="16"/>
     </row>
     <row r="2" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="44" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="60" t="s">
+      <c r="H2" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="61" t="s">
+      <c r="J2" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="97"/>
+      <c r="K2" s="98"/>
       <c r="L2" s="14"/>
       <c r="M2" s="13"/>
       <c r="N2" s="13"/>
       <c r="O2" s="13"/>
     </row>
     <row r="3" spans="1:15" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="75">
+      <c r="D3" s="76">
         <f>Speaker!B140+Speaker!C140-Speaker!B2</f>
         <v>300.30900000000003</v>
       </c>
-      <c r="E3" s="84" t="str">
+      <c r="E3" s="85" t="str">
         <f>TEXT(D3/86400,CHOOSE(MATCH(D3,{0,60,3600},1),"s ""sec""","m ""min"" s ""sec""","[h] ""hrs"" m ""min"" s ""sec"""))</f>
         <v>5 min 0 sec</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="79" t="s">
+      <c r="H3" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="62" t="s">
+      <c r="J3" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="98" t="s">
+      <c r="K3" s="99" t="s">
         <v>38</v>
       </c>
       <c r="L3" s="21"/>
@@ -14780,39 +15632,39 @@
       <c r="O3" s="20"/>
     </row>
     <row r="4" spans="1:15" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="76">
+      <c r="D4" s="77">
         <f>D5+D6</f>
         <v>204.876</v>
       </c>
-      <c r="E4" s="48" t="str">
+      <c r="E4" s="49" t="str">
         <f>TEXT(D4/86400,CHOOSE(MATCH(D4,{0,60,3600},1),"s ""sec""","m ""min"" s ""sec""","[h] ""hrs"" m ""min"" s ""sec"""))</f>
         <v>3 min 25 sec</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="49">
+      <c r="G4" s="50">
         <f>D4/D4</f>
         <v>1</v>
       </c>
-      <c r="H4" s="80" t="s">
+      <c r="H4" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="I4" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="63" t="s">
+      <c r="J4" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="99"/>
-      <c r="L4" s="23" t="s">
+      <c r="K4" s="100"/>
+      <c r="L4" s="24" t="s">
         <v>71</v>
       </c>
       <c r="M4" s="20"/>
@@ -14820,109 +15672,109 @@
       <c r="O4" s="20"/>
     </row>
     <row r="5" spans="1:15" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="24"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="70" t="s">
+      <c r="A5" s="25"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="75">
+      <c r="D5" s="76">
         <f>SUMIF(Speaker!A:A,C5,Speaker!C:C)</f>
         <v>85.781999999999982</v>
       </c>
-      <c r="E5" s="27" t="str">
+      <c r="E5" s="28" t="str">
         <f>TEXT(D5/86400,CHOOSE(MATCH(D5,{0,60,3600},1),"s ""sec""","m ""min"" s ""sec""","[h] ""hrs"" m ""min"" s ""sec"""))</f>
         <v>1 min 26 sec</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="85">
+      <c r="G5" s="86">
         <f>D5/D4</f>
         <v>0.4187020441632987</v>
       </c>
-      <c r="H5" s="79" t="s">
+      <c r="H5" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="62" t="s">
+      <c r="J5" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="92" t="s">
-        <v>82</v>
-      </c>
-      <c r="L5" s="23"/>
-      <c r="M5" s="20"/>
+      <c r="K5" s="93" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" s="24"/>
+      <c r="M5" s="23"/>
       <c r="N5" s="20"/>
       <c r="O5" s="20"/>
     </row>
     <row r="6" spans="1:15" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="75">
+      <c r="A6" s="25"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="76">
         <f>SUMIF(Speaker!A:A,C6,Speaker!C:C)</f>
         <v>119.09400000000002</v>
       </c>
-      <c r="E6" s="27" t="str">
+      <c r="E6" s="28" t="str">
         <f>TEXT(D6/86400,CHOOSE(MATCH(D6,{0,60,3600},1),"s ""sec""","m ""min"" s ""sec""","[h] ""hrs"" m ""min"" s ""sec"""))</f>
         <v>1 min 59 sec</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="85">
+      <c r="G6" s="86">
         <f>D6/D4</f>
         <v>0.5812979558367013</v>
       </c>
-      <c r="H6" s="79" t="s">
+      <c r="H6" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="29" t="s">
+      <c r="I6" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="62" t="s">
+      <c r="J6" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="K6" s="92"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="20"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="23"/>
       <c r="N6" s="20"/>
       <c r="O6" s="20"/>
     </row>
     <row r="7" spans="1:15" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="50"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="72" t="s">
+      <c r="A7" s="51"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="77">
+      <c r="D7" s="78">
         <f>60*D5/D6</f>
         <v>43.2172905436042</v>
       </c>
-      <c r="E7" s="86" t="str">
+      <c r="E7" s="87" t="str">
         <f>TEXT(D7/86400,CHOOSE(MATCH(D7,{0,60,3600},1),"s ""sec""","m ""min"" s ""sec""","[h] ""hrs"" m ""min"" s ""sec"""))</f>
         <v>43 sec</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="G7" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="81" t="s">
+      <c r="H7" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="37" t="s">
+      <c r="I7" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="64" t="s">
+      <c r="J7" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="100" t="s">
+      <c r="K7" s="101" t="s">
         <v>56</v>
       </c>
       <c r="L7" s="21"/>
@@ -14931,188 +15783,188 @@
       <c r="O7" s="20"/>
     </row>
     <row r="8" spans="1:15" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25" t="s">
+      <c r="A8" s="25"/>
+      <c r="B8" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="27">
         <f>D$4/H8</f>
         <v>1.4739280575539568</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="82">
+      <c r="H8" s="83">
         <f>COUNTA(Speaker!A$2:A$140)</f>
         <v>139</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I8" s="32">
         <f>H8/$D$3*60</f>
         <v>27.771395462673443</v>
       </c>
-      <c r="J8" s="65">
+      <c r="J8" s="66">
         <f>H8/H8</f>
         <v>1</v>
       </c>
-      <c r="K8" s="98"/>
+      <c r="K8" s="99"/>
       <c r="L8" s="21"/>
       <c r="M8" s="20"/>
       <c r="N8" s="20"/>
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="70" t="s">
+      <c r="A9" s="25"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="78" t="s">
+      <c r="D9" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="27">
         <f>D$5/H9</f>
         <v>1.5049473684210524</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="79">
+      <c r="H9" s="80">
         <f>COUNTIF(Speaker!$A:$A,Calcs!$C9)</f>
         <v>57</v>
       </c>
-      <c r="I9" s="31">
+      <c r="I9" s="32">
         <f t="shared" ref="I9:I10" si="0">H9/$D$3*60</f>
         <v>11.388270081815728</v>
       </c>
-      <c r="J9" s="65">
+      <c r="J9" s="66">
         <f>H9/H8</f>
         <v>0.41007194244604317</v>
       </c>
-      <c r="K9" s="98"/>
+      <c r="K9" s="99"/>
       <c r="L9" s="21"/>
       <c r="M9" s="20"/>
       <c r="N9" s="20"/>
       <c r="O9" s="20"/>
     </row>
     <row r="10" spans="1:15" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="78" t="s">
+      <c r="A10" s="25"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="27">
         <f>D$6/H10</f>
         <v>1.4523658536585369</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="79">
+      <c r="H10" s="80">
         <f>COUNTIF(Speaker!$A:$A,Calcs!$C10)</f>
         <v>82</v>
       </c>
-      <c r="I10" s="31">
+      <c r="I10" s="32">
         <f t="shared" si="0"/>
         <v>16.383125380857713</v>
       </c>
-      <c r="J10" s="65">
+      <c r="J10" s="66">
         <f>H10/H8</f>
         <v>0.58992805755395683</v>
       </c>
-      <c r="K10" s="98"/>
+      <c r="K10" s="99"/>
       <c r="L10" s="21"/>
       <c r="M10" s="20"/>
       <c r="N10" s="20"/>
       <c r="O10" s="20"/>
     </row>
     <row r="11" spans="1:15" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="70" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="78" t="s">
+      <c r="D11" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="79" t="s">
+      <c r="H11" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="29" t="s">
+      <c r="I11" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="66" t="s">
+      <c r="J11" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="K11" s="98"/>
+      <c r="K11" s="99"/>
       <c r="L11" s="21"/>
       <c r="M11" s="20"/>
       <c r="N11" s="20"/>
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="45"/>
-      <c r="B12" s="46" t="s">
+      <c r="A12" s="46"/>
+      <c r="B12" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="76">
+      <c r="D12" s="77">
         <f>D13+D14</f>
         <v>243.42800000000011</v>
       </c>
-      <c r="E12" s="48" t="str">
+      <c r="E12" s="49" t="str">
         <f>TEXT(D12/86400,CHOOSE(MATCH(D12,{0,60,3600},1),"s ""sec""","m ""min"" s ""sec""","[h] ""hrs"" m ""min"" s ""sec"""))</f>
         <v>4 min 3 sec</v>
       </c>
-      <c r="F12" s="47">
+      <c r="F12" s="48">
         <f>D$4/H12</f>
         <v>2.7316799999999999</v>
       </c>
-      <c r="G12" s="49">
+      <c r="G12" s="50">
         <f>D12/D12</f>
         <v>1</v>
       </c>
-      <c r="H12" s="83">
+      <c r="H12" s="84">
         <f>COUNTA('Speaker (Turns)'!A2:A76)</f>
         <v>75</v>
       </c>
-      <c r="I12" s="52">
+      <c r="I12" s="53">
         <f>H12/$D$3*60</f>
         <v>14.984565897125959</v>
       </c>
-      <c r="J12" s="67">
+      <c r="J12" s="68">
         <f>H12/H12</f>
         <v>1</v>
       </c>
-      <c r="K12" s="99"/>
+      <c r="K12" s="100"/>
       <c r="L12" s="21" t="s">
         <v>78</v>
       </c>
@@ -15121,118 +15973,118 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="24"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="70" t="s">
+      <c r="A13" s="25"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="75">
+      <c r="D13" s="76">
         <f>SUMIF('Speaker (Turns)'!A:A,Calcs!C13,'Speaker (Turns)'!C:C)</f>
         <v>108.09700000000011</v>
       </c>
-      <c r="E13" s="27" t="str">
+      <c r="E13" s="28" t="str">
         <f>TEXT(D13/86400,CHOOSE(MATCH(D13,{0,60,3600},1),"s ""sec""","m ""min"" s ""sec""","[h] ""hrs"" m ""min"" s ""sec"""))</f>
         <v>1 min 48 sec</v>
       </c>
-      <c r="F13" s="87">
+      <c r="F13" s="88">
         <f>D$5/H13</f>
         <v>2.3184324324324321</v>
       </c>
-      <c r="G13" s="88">
+      <c r="G13" s="89">
         <f>D13/D12</f>
         <v>0.44406148840725002</v>
       </c>
-      <c r="H13" s="79">
+      <c r="H13" s="80">
         <f>COUNTIF('Speaker (Turns)'!A:A,Calcs!C13)</f>
         <v>37</v>
       </c>
-      <c r="I13" s="31">
+      <c r="I13" s="32">
         <f t="shared" ref="I13:I14" si="1">H13/$D$3*60</f>
         <v>7.39238584258214</v>
       </c>
-      <c r="J13" s="65">
+      <c r="J13" s="66">
         <f>H13/H12</f>
         <v>0.49333333333333335</v>
       </c>
-      <c r="K13" s="92" t="s">
-        <v>83</v>
+      <c r="K13" s="93" t="s">
+        <v>81</v>
       </c>
       <c r="L13" s="21"/>
-      <c r="M13" s="20"/>
+      <c r="M13" s="23"/>
       <c r="N13" s="20"/>
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="75">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="76">
         <f>SUMIF('Speaker (Turns)'!A:A,Calcs!C14,'Speaker (Turns)'!C:C)</f>
         <v>135.33099999999999</v>
       </c>
-      <c r="E14" s="27" t="str">
+      <c r="E14" s="28" t="str">
         <f>TEXT(D14/86400,CHOOSE(MATCH(D14,{0,60,3600},1),"s ""sec""","m ""min"" s ""sec""","[h] ""hrs"" m ""min"" s ""sec"""))</f>
         <v>2 min 15 sec</v>
       </c>
-      <c r="F14" s="87">
+      <c r="F14" s="88">
         <f>D$6/H14</f>
         <v>3.1340526315789479</v>
       </c>
-      <c r="G14" s="88">
+      <c r="G14" s="89">
         <f>D14/D12</f>
         <v>0.55593851159274987</v>
       </c>
-      <c r="H14" s="79">
+      <c r="H14" s="80">
         <f>COUNTIF('Speaker (Turns)'!A:A,Calcs!C14)</f>
         <v>38</v>
       </c>
-      <c r="I14" s="31">
+      <c r="I14" s="32">
         <f t="shared" si="1"/>
         <v>7.5921800545438192</v>
       </c>
-      <c r="J14" s="65">
+      <c r="J14" s="66">
         <f>H14/H12</f>
         <v>0.50666666666666671</v>
       </c>
-      <c r="K14" s="92"/>
+      <c r="K14" s="93"/>
       <c r="L14" s="21"/>
-      <c r="M14" s="20"/>
+      <c r="M14" s="23"/>
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
     </row>
     <row r="15" spans="1:15" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="50"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="72" t="s">
+      <c r="A15" s="51"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="77">
+      <c r="D15" s="78">
         <f>60*D13/D14</f>
         <v>47.925604628651278</v>
       </c>
-      <c r="E15" s="86" t="str">
+      <c r="E15" s="87" t="str">
         <f>TEXT(D15/86400,CHOOSE(MATCH(D15,{0,60,3600},1),"s ""sec""","m ""min"" s ""sec""","[h] ""hrs"" m ""min"" s ""sec"""))</f>
         <v>48 sec</v>
       </c>
-      <c r="F15" s="36" t="s">
+      <c r="F15" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="51" t="s">
+      <c r="G15" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="81" t="s">
+      <c r="H15" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="37" t="s">
+      <c r="I15" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="J15" s="64" t="s">
+      <c r="J15" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="K15" s="100" t="s">
-        <v>81</v>
+      <c r="K15" s="101" t="s">
+        <v>79</v>
       </c>
       <c r="L15" s="21"/>
       <c r="M15" s="20"/>
@@ -15240,207 +16092,207 @@
       <c r="O15" s="20"/>
     </row>
     <row r="16" spans="1:15" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="70" t="s">
+      <c r="C16" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="78">
+      <c r="D16" s="105">
         <f>60/I16</f>
         <v>4.0582297297297298</v>
       </c>
-      <c r="E16" s="90" t="str">
+      <c r="E16" s="91" t="str">
         <f>TEXT(D16/86400,CHOOSE(MATCH(D16,{0,60,3600},1),"s ""sec""","m ""min"" s ""sec""","[h] ""hrs"" m ""min"" s ""sec"""))</f>
         <v>4 sec</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="79">
+      <c r="H16" s="80">
         <f>COUNTIF(Speaker!$G:$G,0)</f>
         <v>74</v>
       </c>
-      <c r="I16" s="89">
+      <c r="I16" s="90">
         <f>H16/($D$3/60)</f>
         <v>14.78477168516428</v>
       </c>
-      <c r="J16" s="65">
+      <c r="J16" s="66">
         <f>H16/H16</f>
         <v>1</v>
       </c>
-      <c r="K16" s="91" t="s">
+      <c r="K16" s="92" t="s">
         <v>77</v>
       </c>
       <c r="L16" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M16" s="20"/>
       <c r="N16" s="20"/>
       <c r="O16" s="20"/>
     </row>
     <row r="17" spans="1:15" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="54"/>
-      <c r="B17" s="56" t="s">
+      <c r="A17" s="55"/>
+      <c r="B17" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="71" t="s">
+      <c r="C17" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="76">
+      <c r="D17" s="77">
         <f>SUMIFS(Speaker!H:H, Speaker!G:G,0, Speaker!H:H,"&gt;0")</f>
         <v>80.575999999999894</v>
       </c>
-      <c r="E17" s="48" t="str">
+      <c r="E17" s="49" t="str">
         <f>TEXT(D17/86400,CHOOSE(MATCH(D17,{0,60,3600},1),"s ""sec""","m ""min"" s ""sec""","[h] ""hrs"" m ""min"" s ""sec"""))</f>
         <v>1 min 21 sec</v>
       </c>
-      <c r="F17" s="47">
+      <c r="F17" s="48">
         <f>D17/H17</f>
         <v>2.0143999999999975</v>
       </c>
-      <c r="G17" s="49">
+      <c r="G17" s="50">
         <f>D17/D17</f>
         <v>1</v>
       </c>
-      <c r="H17" s="80">
+      <c r="H17" s="81">
         <f>COUNTIFS(Speaker!G:G,0,Speaker!H:H,"&gt;0")</f>
         <v>40</v>
       </c>
-      <c r="I17" s="52">
+      <c r="I17" s="53">
         <f>H17/($D$3/60)</f>
         <v>7.9917684784671783</v>
       </c>
-      <c r="J17" s="67">
+      <c r="J17" s="68">
         <f>H17/H17</f>
         <v>1</v>
       </c>
-      <c r="K17" s="99"/>
+      <c r="K17" s="100"/>
       <c r="L17" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M17" s="20"/>
       <c r="N17" s="20"/>
       <c r="O17" s="20"/>
     </row>
     <row r="18" spans="1:15" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="54"/>
-      <c r="B18" s="73" t="s">
+      <c r="A18" s="55"/>
+      <c r="B18" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="70" t="s">
+      <c r="C18" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="75">
+      <c r="D18" s="76">
         <f>SUMIFS(Speaker!H:H, Speaker!G:G,0, Speaker!H:H, "&gt;0", Speaker!A:A,"CHILD")</f>
         <v>47.634999999999891</v>
       </c>
-      <c r="E18" s="27" t="str">
+      <c r="E18" s="28" t="str">
         <f>TEXT(D18/86400,CHOOSE(MATCH(D18,{0,60,3600},1),"s ""sec""","m ""min"" s ""sec""","[h] ""hrs"" m ""min"" s ""sec"""))</f>
         <v>48 sec</v>
       </c>
-      <c r="F18" s="87">
+      <c r="F18" s="88">
         <f t="shared" ref="F18:F19" si="2">D18/H18</f>
         <v>2.2683333333333282</v>
       </c>
-      <c r="G18" s="32">
+      <c r="G18" s="33">
         <f>D18/D17</f>
         <v>0.59118099682287473</v>
       </c>
-      <c r="H18" s="79">
+      <c r="H18" s="80">
         <f>COUNTIFS(Speaker!G:G,0,Speaker!H:H, "&gt;0",Speaker!A:A,"CHILD")</f>
         <v>21</v>
       </c>
-      <c r="I18" s="89">
+      <c r="I18" s="90">
         <f>H18/($D$3/60)</f>
         <v>4.1956784511952687</v>
       </c>
-      <c r="J18" s="65">
+      <c r="J18" s="66">
         <f>H18/H17</f>
         <v>0.52500000000000002</v>
       </c>
-      <c r="K18" s="92" t="s">
-        <v>84</v>
+      <c r="K18" s="93" t="s">
+        <v>82</v>
       </c>
       <c r="L18" s="21"/>
-      <c r="M18" s="20"/>
+      <c r="M18" s="23"/>
       <c r="N18" s="20"/>
       <c r="O18" s="20"/>
     </row>
     <row r="19" spans="1:15" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="54"/>
-      <c r="B19" s="73" t="s">
+      <c r="A19" s="55"/>
+      <c r="B19" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="75">
+      <c r="C19" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="76">
         <f>SUMIFS(Speaker!H:H, Speaker!G:G,0, Speaker!H:H, "&gt;0", Speaker!A:A,"ADULT")</f>
         <v>32.941000000000003</v>
       </c>
-      <c r="E19" s="27" t="str">
+      <c r="E19" s="28" t="str">
         <f>TEXT(D19/86400,CHOOSE(MATCH(D19,{0,60,3600},1),"s ""sec""","m ""min"" s ""sec""","[h] ""hrs"" m ""min"" s ""sec"""))</f>
         <v>33 sec</v>
       </c>
-      <c r="F19" s="87">
+      <c r="F19" s="88">
         <f t="shared" si="2"/>
         <v>1.7337368421052632</v>
       </c>
-      <c r="G19" s="32">
+      <c r="G19" s="33">
         <f>D19/D17</f>
         <v>0.40881900317712527</v>
       </c>
-      <c r="H19" s="79">
+      <c r="H19" s="80">
         <f>COUNTIFS(Speaker!G:G,0,Speaker!H:H, "&gt;0",Speaker!A:A,"ADULT")</f>
         <v>19</v>
       </c>
-      <c r="I19" s="89">
+      <c r="I19" s="90">
         <f t="shared" ref="I19" si="3">H19/($D$3/60)</f>
         <v>3.7960900272719096</v>
       </c>
-      <c r="J19" s="65">
+      <c r="J19" s="66">
         <f>H19/H17</f>
         <v>0.47499999999999998</v>
       </c>
-      <c r="K19" s="92"/>
+      <c r="K19" s="93"/>
       <c r="L19" s="21"/>
-      <c r="M19" s="20"/>
+      <c r="M19" s="23"/>
       <c r="N19" s="20"/>
       <c r="O19" s="20"/>
     </row>
     <row r="20" spans="1:15" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="54"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="72" t="s">
+      <c r="A20" s="55"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="77"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="36" t="s">
+      <c r="D20" s="78"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="96">
+      <c r="G20" s="97">
         <f>(F18-F19)/F19</f>
         <v>0.30834927091871023</v>
       </c>
-      <c r="H20" s="81" t="s">
+      <c r="H20" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="37" t="s">
+      <c r="I20" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="J20" s="93" t="s">
+      <c r="J20" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="K20" s="100" t="s">
-        <v>79</v>
+      <c r="K20" s="101" t="s">
+        <v>87</v>
       </c>
       <c r="L20" s="21"/>
       <c r="M20" s="20"/>
@@ -15448,159 +16300,159 @@
       <c r="O20" s="20"/>
     </row>
     <row r="21" spans="1:15" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="54"/>
-      <c r="B21" s="25" t="s">
+      <c r="A21" s="55"/>
+      <c r="B21" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="70" t="s">
+      <c r="C21" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="75">
+      <c r="D21" s="76">
         <f>ABS(SUMIFS(Speaker!H:H, Speaker!G:G,0, Speaker!H:H,"&lt;0"))</f>
         <v>23.337999999999987</v>
       </c>
-      <c r="E21" s="27" t="str">
+      <c r="E21" s="28" t="str">
         <f>TEXT(D21/86400,CHOOSE(MATCH(D21,{0,60,3600},1),"s ""sec""","m ""min"" s ""sec""","[h] ""hrs"" m ""min"" s ""sec"""))</f>
         <v>23 sec</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F21" s="27">
         <f>D21/H21</f>
         <v>0.68641176470588194</v>
       </c>
-      <c r="G21" s="29">
+      <c r="G21" s="30">
         <f>D21/D21</f>
         <v>1</v>
       </c>
-      <c r="H21" s="79">
+      <c r="H21" s="80">
         <f>COUNTIFS(Speaker!G:G,0,Speaker!H:H,"&lt;0")</f>
         <v>34</v>
       </c>
-      <c r="I21" s="89">
+      <c r="I21" s="90">
         <f>H21/($D$3/60)</f>
         <v>6.7930032066971018</v>
       </c>
-      <c r="J21" s="94">
+      <c r="J21" s="95">
         <f>H21/H21</f>
         <v>1</v>
       </c>
-      <c r="K21" s="98"/>
+      <c r="K21" s="99"/>
       <c r="L21" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M21" s="20"/>
       <c r="N21" s="20"/>
       <c r="O21" s="20"/>
     </row>
     <row r="22" spans="1:15" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="54"/>
-      <c r="B22" s="74" t="s">
+      <c r="A22" s="55"/>
+      <c r="B22" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="70" t="s">
+      <c r="C22" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="75">
+      <c r="D22" s="76">
         <f>ABS(SUMIFS(Speaker!H:H, Speaker!G:G,0, Speaker!H:H, "&lt;0", Speaker!A:A,C22))</f>
         <v>9.4059999999999686</v>
       </c>
-      <c r="E22" s="27" t="str">
+      <c r="E22" s="28" t="str">
         <f>TEXT(D22/86400,CHOOSE(MATCH(D22,{0,60,3600},1),"s ""sec""","m ""min"" s ""sec""","[h] ""hrs"" m ""min"" s ""sec"""))</f>
         <v>9 sec</v>
       </c>
-      <c r="F22" s="87">
+      <c r="F22" s="88">
         <f t="shared" ref="F22:F23" si="4">D22/H22</f>
         <v>0.52255555555555377</v>
       </c>
-      <c r="G22" s="32">
+      <c r="G22" s="33">
         <f>D22/D21</f>
         <v>0.40303367897848891</v>
       </c>
-      <c r="H22" s="79">
+      <c r="H22" s="80">
         <f>COUNTIFS(Speaker!G:G,0,Speaker!H:H, "&lt;0",Speaker!A:A,C22)</f>
         <v>18</v>
       </c>
-      <c r="I22" s="89">
+      <c r="I22" s="90">
         <f t="shared" ref="I22:I23" si="5">H22/($D$3/60)</f>
         <v>3.59629581531023</v>
       </c>
-      <c r="J22" s="94">
+      <c r="J22" s="95">
         <f>H22/H21</f>
         <v>0.52941176470588236</v>
       </c>
-      <c r="K22" s="92" t="s">
-        <v>85</v>
+      <c r="K22" s="93" t="s">
+        <v>83</v>
       </c>
       <c r="L22" s="21"/>
-      <c r="M22" s="20"/>
+      <c r="M22" s="23"/>
       <c r="N22" s="20"/>
       <c r="O22" s="20"/>
     </row>
     <row r="23" spans="1:15" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="54"/>
-      <c r="B23" s="74" t="s">
+      <c r="A23" s="55"/>
+      <c r="B23" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="75">
+      <c r="C23" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="76">
         <f>ABS(SUMIFS(Speaker!H:H, Speaker!G:G,0, Speaker!H:H, "&lt;0", Speaker!A:A,C23))</f>
         <v>13.932000000000016</v>
       </c>
-      <c r="E23" s="27" t="str">
+      <c r="E23" s="28" t="str">
         <f>TEXT(D23/86400,CHOOSE(MATCH(D23,{0,60,3600},1),"s ""sec""","m ""min"" s ""sec""","[h] ""hrs"" m ""min"" s ""sec"""))</f>
         <v>14 sec</v>
       </c>
-      <c r="F23" s="87">
+      <c r="F23" s="88">
         <f t="shared" si="4"/>
         <v>0.87075000000000102</v>
       </c>
-      <c r="G23" s="32">
+      <c r="G23" s="33">
         <f>D23/D21</f>
         <v>0.59696632102151104</v>
       </c>
-      <c r="H23" s="79">
+      <c r="H23" s="80">
         <f>COUNTIFS(Speaker!G:G,0,Speaker!H:H, "&lt;0",Speaker!A:A,C23)</f>
         <v>16</v>
       </c>
-      <c r="I23" s="89">
+      <c r="I23" s="90">
         <f t="shared" si="5"/>
         <v>3.1967073913868713</v>
       </c>
-      <c r="J23" s="94">
+      <c r="J23" s="95">
         <f>H23/H21</f>
         <v>0.47058823529411764</v>
       </c>
-      <c r="K23" s="92"/>
+      <c r="K23" s="93"/>
       <c r="L23" s="21"/>
-      <c r="M23" s="20"/>
+      <c r="M23" s="23"/>
       <c r="N23" s="20"/>
       <c r="O23" s="20"/>
     </row>
-    <row r="24" spans="1:15" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="55"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="72" t="s">
+    <row r="24" spans="1:15" s="19" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="A24" s="56"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="77"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="36" t="s">
+      <c r="D24" s="78"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="96">
+      <c r="G24" s="97">
         <f>(F23-F22)/F22</f>
         <v>0.66633000212630999</v>
       </c>
-      <c r="H24" s="81" t="s">
+      <c r="H24" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="I24" s="95" t="s">
+      <c r="I24" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="J24" s="93"/>
-      <c r="K24" s="100" t="s">
-        <v>80</v>
+      <c r="J24" s="94"/>
+      <c r="K24" s="101" t="s">
+        <v>88</v>
       </c>
       <c r="L24" s="21"/>
       <c r="M24" s="20"/>
@@ -15608,17 +16460,17 @@
       <c r="O24" s="20"/>
     </row>
     <row r="25" spans="1:15" s="19" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="58"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="101"/>
+      <c r="A25" s="59"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="102"/>
       <c r="L25" s="21"/>
       <c r="M25" s="20"/>
       <c r="N25" s="20"/>
@@ -15636,7 +16488,7 @@
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="22"/>
-      <c r="K26" s="102"/>
+      <c r="K26" s="103"/>
       <c r="L26" s="21"/>
       <c r="M26" s="20"/>
       <c r="N26" s="20"/>
@@ -18215,17 +19067,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF0EF779-9900-A140-BD7E-E8B884F97FDA}">
-  <dimension ref="A2:D26"/>
+  <dimension ref="A2:D37"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -18322,41 +19174,64 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>74</v>
       </c>
       <c r="B23" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <f>Calcs!D13-C24</f>
+        <v>84.759000000000128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24">
+        <f>Calcs!D21</f>
+        <v>23.337999999999987</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <f>Calcs!D14-C24</f>
+        <v>111.99299999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>41</v>
       </c>
+      <c r="C26">
+        <f>Calcs!D17</f>
+        <v>80.575999999999894</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <f>6/16</f>
+        <v>0.375</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
